--- a/Pull Request Here/Start Without Tech - 2550777561/Start Without Tech - 2550777561.xlsx
+++ b/Pull Request Here/Start Without Tech - 2550777561/Start Without Tech - 2550777561.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38E236C-5E0A-4E7C-8716-A730D48BC5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA8281B-28FA-4C21-919F-B9C8151907BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,14 +144,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>체크하면, 새 게임은 이데올로기로부터 제공되는 연구 없이 시작합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크하면, 새 게임은 시나리오로부터 제공되는 연구 없이 시작합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>현재 세이브의 기술 수준</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -164,11 +156,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>체크하면, 새 게임은 아래의 기술 수준으로 시작합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Start Without Tech</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성화되면, 새 게임은 아래의 기술 수준으로 시작합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성화되면, 새 게임은 시나리오로부터 제공되는 연구 없이 시작합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성화되면, 새 게임은 이데올로기로부터 제공되는 연구 없이 시작합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -575,10 +575,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -612,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -629,7 +629,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -646,7 +646,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -697,7 +697,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -714,7 +714,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -731,7 +731,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
